--- a/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,15%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,83; 23,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 41,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,55; 33,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,09; 40,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 83,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; 60,2</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 13,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 23,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 33,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 19,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 39,61</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,87%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 7,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 8,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 19,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,8; 8,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 10,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,0; 29,38</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,53; 33,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 19,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 19,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 59,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 33,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 35,17</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,52%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 11,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; 11,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 16,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 16,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; 17,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 29,26</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 10,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 7,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,7; 13,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 14,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 10,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 21,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 23,74</t>
+          <t>-1,57; 19,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 41,31</t>
+          <t>-2,95; 14,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 33,48</t>
+          <t>2,0; 22,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 40,02</t>
+          <t>-1,83; 28,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 83,44</t>
+          <t>-3,39; 20,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 60,2</t>
+          <t>2,69; 36,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,68</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>14,87%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,52</t>
+          <t>-7,9; 7,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 13,99</t>
+          <t>-6,11; 8,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 23,39</t>
+          <t>2,31; 19,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 33,94</t>
+          <t>-8,8; 8,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 19,1</t>
+          <t>-7,04; 10,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 39,61</t>
+          <t>3,0; 29,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>20,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,59</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 7,32</t>
+          <t>9,53; 33,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 8,2</t>
+          <t>-1,63; 19,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 19,12</t>
+          <t>-3,04; 19,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 8,95</t>
+          <t>12,75; 59,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,48</t>
+          <t>-2,07; 33,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 29,38</t>
+          <t>-4,01; 35,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,83</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>12,52%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 33,42</t>
+          <t>-4,89; 11,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 19,57</t>
+          <t>-6,63; 11,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 19,41</t>
+          <t>-0,59; 16,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 59,17</t>
+          <t>-6,13; 16,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 33,52</t>
+          <t>-8,6; 17,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 35,17</t>
+          <t>-0,7; 29,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 11,33</t>
+          <t>1,84; 10,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 11,09</t>
+          <t>-1,27; 7,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 16,22</t>
+          <t>4,7; 13,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 16,03</t>
+          <t>2,29; 14,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 17,0</t>
+          <t>-1,58; 10,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 29,26</t>
+          <t>6,78; 21,73</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,21</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,01</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 10,92</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 7,54</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 13,77</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 14,69</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 10,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 21,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 19,22</t>
+          <t>-1,72; 19,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 14,61</t>
+          <t>-3,42; 13,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 22,39</t>
+          <t>1,28; 21,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 28,11</t>
+          <t>-1,94; 29,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 20,19</t>
+          <t>-3,57; 18,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 36,55</t>
+          <t>1,74; 36,7</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 7,32</t>
+          <t>-8,22; 7,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 8,2</t>
+          <t>-6,06; 8,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 19,12</t>
+          <t>2,85; 18,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 8,95</t>
+          <t>-9,06; 9,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,48</t>
+          <t>-6,92; 10,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 29,38</t>
+          <t>3,83; 28,56</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 33,42</t>
+          <t>9,7; 32,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 19,57</t>
+          <t>-2,12; 19,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 19,41</t>
+          <t>-2,14; 20,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 59,17</t>
+          <t>12,71; 57,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 33,52</t>
+          <t>-2,98; 34,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 35,17</t>
+          <t>-2,86; 38,24</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 11,33</t>
+          <t>-5,57; 10,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 11,09</t>
+          <t>-6,12; 9,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 16,22</t>
+          <t>-0,62; 15,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 16,03</t>
+          <t>-6,58; 14,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 17,0</t>
+          <t>-7,94; 14,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 29,26</t>
+          <t>-1,22; 27,74</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,92</t>
+          <t>1,34; 11,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,54</t>
+          <t>-0,52; 7,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 13,77</t>
+          <t>4,63; 13,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 14,69</t>
+          <t>1,64; 14,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 10,36</t>
+          <t>-0,65; 10,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 21,73</t>
+          <t>6,64; 21,43</t>
         </is>
       </c>
     </row>
